--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6787,4 +6788,4006 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3833</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2560</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5984</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4629</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2974</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2361</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1424</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9228</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8174</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6987</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6641</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6603</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5527</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>253010</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国联安安心成长混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10790,4 +10791,5112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3765</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9827</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4320</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9885</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8985</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5596</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5261</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3391</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1213</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0455</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4963</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4321</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3717</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2947</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2761</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0699</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9457</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8620</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7839</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7523</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7488</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5863</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5667</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15899,4 +15900,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15908,7 +15909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15919,17 +15920,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15939,14 +15960,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95.22</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15955,14 +15998,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>104</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58.65</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -15971,14 +16036,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.25</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4424</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -15987,13 +16074,4973 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4878</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.2129</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.1899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7765</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.0864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5516</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3909</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3523</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0062</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8181</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7161</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2651</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2553</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0658</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0542</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9937</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9588</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9334</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9154</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8952</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8555</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6890</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6418</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5297</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>109</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>64.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20939,7 +20940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20950,17 +20951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20970,14 +20991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108.37</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -20986,14 +21029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.22</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6711</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -21002,14 +21067,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>104</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.65</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -21018,14 +21105,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.25</v>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -21034,13 +21143,2255 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5525</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7822</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4769</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1820</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1233</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0911</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7606</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6331</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6229</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5860</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>109</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>64.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23274,7 +23275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23285,17 +23286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23305,14 +23326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.4</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -23321,14 +23364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>131</v>
-      </c>
-      <c r="D3" t="n">
-        <v>108.37</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -23337,14 +23402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>133</v>
-      </c>
-      <c r="D4" t="n">
-        <v>95.22</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -23353,14 +23440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>104</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58.65</v>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -23369,14 +23478,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.25</v>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -23385,13 +23516,3333 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7525</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6962</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0376</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9449</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9298</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8651</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7262</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7262</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5764</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>104</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>109</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>64.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
+++ b/数据整理/stocks/A股/创业板/300207-欣旺达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>56.94</v>
+        <v>37.81</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>43.4</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>108.37</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>95.22</v>
+        <v>108.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D6" t="n">
-        <v>58.65</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D7" t="n">
-        <v>27.25</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>109</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>64.27</v>
       </c>
     </row>
@@ -600,6 +617,2684 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8619</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6616</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2471</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6669</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6522</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015752</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4033,7 +6728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6367,7 +9062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11397,7 +14092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16505,7 +19200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20507,7 +23202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22653,7 +25348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
